--- a/testdata/internal/test_remote_validation_errors.xlsx
+++ b/testdata/internal/test_remote_validation_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/submitr/testdata/internal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE34DA1-3879-4146-815D-693C5B0257EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA396777-9E2C-6B42-BEE7-40D69CE31F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FileFormat" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>identifier</t>
   </si>
@@ -166,12 +166,6 @@
     <t>WDL</t>
   </si>
   <si>
-    <t>DAC_SOFTWARE_VEPX</t>
-  </si>
-  <si>
-    <t>DAC_SOFTWARE_VEPX|DAC_SOFTWARE_FASTQC</t>
-  </si>
-  <si>
     <t>DAC_SOFTWARE_FASTQC</t>
   </si>
   <si>
@@ -182,6 +176,9 @@
   </si>
   <si>
     <t>DAX_SOFTWARE_VEPX</t>
+  </si>
+  <si>
+    <t>DAX_SOFTWARE_VEPX|DAC_SOFTWARE_FASTQC</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -500,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +597,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +633,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -659,7 +656,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -692,7 +689,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
@@ -780,7 +777,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
